--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2398634.278038711</v>
+        <v>2545758.617434183</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18102505.445641</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1287413.317324959</v>
+        <v>278692.0725916864</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4931751.927330684</v>
+        <v>5186763.288913774</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +670,7 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>370.002799118775</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>184.5077471891694</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -820,16 +822,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>8.561658968975108</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -874,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>58.85919379403585</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,19 +898,19 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>322.5170046541308</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>248.9066601527452</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -1054,16 +1056,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>170.6072317764128</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>34.06158462964497</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>332.0164959768353</v>
+        <v>59.59474737021493</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1151,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>177.9326461527353</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1353,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>163.623063989949</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,19 +1378,19 @@
         <v>431.5506869773</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>352.6386906796993</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1534,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>104.6302585404037</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869773</v>
@@ -1616,16 +1618,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>409.9451080656643</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
         <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.6974459740336</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>400.8069000430781</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -2011,13 +2013,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>54.49360828358933</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2081,10 +2083,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884115</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773011</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
@@ -2251,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>20.73696989209183</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2287,7 +2289,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>73.01514676193472</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2299,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2485,7 +2487,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>214.3693806674597</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3007,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>67.84972440587271</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>39.88277234054614</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3249,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3266,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3323,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3484,13 +3486,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>78.37744390510585</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>81.01098805494593</v>
       </c>
     </row>
     <row r="38">
@@ -3506,22 +3508,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948839</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314576</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3560,10 +3562,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3724,7 +3726,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>120.4898091149193</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3740,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3749,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791300866</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800142</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>46.44887857853691</v>
+        <v>256.6300796561547</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>2.008513159454827</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3964,7 +3966,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.0133209501111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>378.1678080856293</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3992,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4147,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>73.01514676193457</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>503.806449467169</v>
+        <v>153.8932738874814</v>
       </c>
       <c r="C2" t="n">
-        <v>469.7043806909963</v>
+        <v>119.7912051113087</v>
       </c>
       <c r="D2" t="n">
-        <v>437.8349999058449</v>
+        <v>87.92182432615731</v>
       </c>
       <c r="E2" t="n">
-        <v>408.1006591045441</v>
+        <v>58.18748352485655</v>
       </c>
       <c r="F2" t="n">
         <v>34.36045797446834</v>
@@ -4328,19 +4330,19 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4358,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1613.531556264254</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1354.309253581271</v>
+        <v>1134.24202645431</v>
       </c>
       <c r="V2" t="n">
-        <v>1354.309253581271</v>
+        <v>771.6250763881362</v>
       </c>
       <c r="W2" t="n">
-        <v>1353.494203032709</v>
+        <v>366.7696217991695</v>
       </c>
       <c r="X2" t="n">
-        <v>934.3517396120193</v>
+        <v>180.3981599919276</v>
       </c>
       <c r="Y2" t="n">
-        <v>526.0656159116727</v>
+        <v>176.1524403319851</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>433.6589524295434</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>161.064410519212</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>75.67932078539587</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4407,7 +4409,7 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>319.8519551513677</v>
       </c>
       <c r="K3" t="n">
         <v>739.9048540962709</v>
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>973.0996549038641</v>
+        <v>473.5714734656729</v>
       </c>
       <c r="C4" t="n">
-        <v>800.5379433870891</v>
+        <v>301.0097619488978</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>292.3616215761957</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>122.603617826933</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>122.603617826933</v>
       </c>
       <c r="G4" t="n">
         <v>122.603617826933</v>
@@ -4489,22 +4491,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>726.9120049407049</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>761.8145120199619</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>761.8145120199619</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4522,16 +4524,16 @@
         <v>1697.183430080417</v>
       </c>
       <c r="V4" t="n">
-        <v>1697.183430080417</v>
+        <v>1410.227921950848</v>
       </c>
       <c r="W4" t="n">
-        <v>1637.729698975331</v>
+        <v>1138.201517537139</v>
       </c>
       <c r="X4" t="n">
-        <v>1392.337944308743</v>
+        <v>892.8097628705518</v>
       </c>
       <c r="Y4" t="n">
-        <v>1164.918273622851</v>
+        <v>665.39009218466</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.10956023096</v>
+        <v>2075.156929400156</v>
       </c>
       <c r="C5" t="n">
-        <v>1142.527885968228</v>
+        <v>1749.382177224266</v>
       </c>
       <c r="D5" t="n">
-        <v>713.9462117054968</v>
+        <v>1313.47239239871</v>
       </c>
       <c r="E5" t="n">
-        <v>285.3645374427651</v>
+        <v>879.6976475570054</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1733.888642131952</v>
       </c>
       <c r="M5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="N5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="O5" t="n">
-        <v>874.0494664914149</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.966478762202</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="T5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="U5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="V5" t="n">
-        <v>1613.531556264254</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="W5" t="n">
-        <v>1612.716505715692</v>
+        <v>2116.763874884887</v>
       </c>
       <c r="X5" t="n">
-        <v>1597.614446335406</v>
+        <v>2101.661815504602</v>
       </c>
       <c r="Y5" t="n">
-        <v>1593.368726675464</v>
+        <v>2097.416095844659</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>739.9048540962709</v>
+        <v>972.3985859291677</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>972.3985859291677</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>972.3985859291677</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>972.3985859291677</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>206.2742057495001</v>
+        <v>593.0357356940376</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>420.4740241772625</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>254.5960313787852</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>84.83802762952249</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947706</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1143.991608255753</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1586.250411413398</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639179</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609521</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2340.960139477222</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2095.080693055677</v>
       </c>
       <c r="U7" t="n">
-        <v>1429.886162364244</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>1142.930654234675</v>
+        <v>1529.692184179213</v>
       </c>
       <c r="W7" t="n">
-        <v>870.9042498209665</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>625.5124951543789</v>
+        <v>1012.274025098917</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.0928244684872</v>
+        <v>784.8543544130248</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1654.761434047123</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C8" t="n">
-        <v>1226.179759784392</v>
+        <v>573.3347414199409</v>
       </c>
       <c r="D8" t="n">
-        <v>797.5980855216599</v>
+        <v>137.4249565943854</v>
       </c>
       <c r="E8" t="n">
-        <v>462.2278875652606</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M8" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1696.368379531855</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.26632015157</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y8" t="n">
-        <v>1677.020600491627</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>739.9048540962709</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L9" t="n">
-        <v>739.9048540962709</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1175.902039375362</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>369.5796651493484</v>
+        <v>966.8681021663376</v>
       </c>
       <c r="C10" t="n">
-        <v>369.5796651493484</v>
+        <v>794.3063906495626</v>
       </c>
       <c r="D10" t="n">
-        <v>203.7016723508711</v>
+        <v>628.4283978510853</v>
       </c>
       <c r="E10" t="n">
-        <v>33.94366860160834</v>
+        <v>458.6703941018225</v>
       </c>
       <c r="F10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="G10" t="n">
-        <v>33.94366860160834</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>813.4916901053949</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1181.483761245743</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1292.062614956869</v>
+        <v>2468.913059527977</v>
       </c>
       <c r="U10" t="n">
-        <v>1013.629614209975</v>
+        <v>2190.480058781082</v>
       </c>
       <c r="V10" t="n">
-        <v>726.6741060804052</v>
+        <v>1903.524550651513</v>
       </c>
       <c r="W10" t="n">
-        <v>726.6741060804052</v>
+        <v>1631.498146237804</v>
       </c>
       <c r="X10" t="n">
-        <v>726.6741060804052</v>
+        <v>1386.106391571217</v>
       </c>
       <c r="Y10" t="n">
-        <v>561.3982838683355</v>
+        <v>1158.686720885325</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1306.390568510015</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>868.2480956934384</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>432.3383108678828</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>432.3383108678828</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>76.13761321162089</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>76.13761321162089</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>511.3923006645388</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>511.3923006645388</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>511.3923006645388</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N11" t="n">
-        <v>1320.714971542188</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O11" t="n">
-        <v>2262.917935035996</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P11" t="n">
-        <v>3091.227809869393</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q11" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>3586.813433454083</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>2964.974180704926</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>2560.118726115959</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2140.97626269527</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>1732.690138994923</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2012863720785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>426.7596113382908</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>426.7596113382908</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M12" t="n">
-        <v>426.7596113382908</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="N12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P12" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q12" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R12" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>785.6314506292333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>613.0697391124583</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>447.191746313981</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>447.191746313981</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>270.4846922757372</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H13" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2533.555854412417</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2287.676407990873</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2009.243407243978</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.287899114408</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1450.2614947007</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1204.869740034112</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>977.4500693482205</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1649.03826517876</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1649.03826517876</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1213.128480353205</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>779.3537355115</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>365.2677677684047</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G14" t="n">
-        <v>365.2677677684047</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>511.3923006645388</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1345.742592622717</v>
+        <v>1368.288338304628</v>
       </c>
       <c r="L14" t="n">
-        <v>1489.869036295245</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="M14" t="n">
-        <v>1489.869036295245</v>
+        <v>2443.348304557487</v>
       </c>
       <c r="N14" t="n">
-        <v>1489.869036295245</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O14" t="n">
-        <v>2432.071999789054</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>3260.38187462245</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3806.880660581045</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3806.880660581045</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3723.228786764882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3503.16155963792</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>3243.939256954937</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2881.322306888763</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2476.466852299796</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>2057.324388879107</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>1649.03826517876</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>400.6959381778332</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>400.6959381778332</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>400.6959381778332</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M15" t="n">
-        <v>400.6959381778332</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N15" t="n">
-        <v>400.6959381778332</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O15" t="n">
-        <v>400.6959381778332</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1081.465657964015</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.20459659609</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1155.195773823502</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C16" t="n">
-        <v>982.6340623067273</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D16" t="n">
-        <v>816.75606950825</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E16" t="n">
-        <v>646.9980657589872</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F16" t="n">
-        <v>470.2910117207434</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G16" t="n">
-        <v>304.699736746571</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H16" t="n">
-        <v>164.7975624369456</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>76.13761321162089</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>162.7172983763108</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>855.6856347154053</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1315.169501896318</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1757.428305053963</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2177.097554279744</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2524.604448250086</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2692.797223114419</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2692.797223114419</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>2533.555854412415</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T16" t="n">
-        <v>2533.555854412415</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U16" t="n">
-        <v>2255.12285366552</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V16" t="n">
-        <v>1968.167345535951</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W16" t="n">
-        <v>1696.140941122242</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X16" t="n">
-        <v>1450.749186455655</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y16" t="n">
-        <v>1347.01439254249</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5552,13 +5554,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5750,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>1612.575493976557</v>
+        <v>1021.773653488281</v>
       </c>
       <c r="M20" t="n">
-        <v>2769.623329187108</v>
+        <v>2178.821488698832</v>
       </c>
       <c r="N20" t="n">
-        <v>3895.354312623555</v>
+        <v>3304.552472135279</v>
       </c>
       <c r="O20" t="n">
-        <v>3895.354312623555</v>
+        <v>4284.732138705585</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5795,7 +5797,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5834,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>1737.537409152261</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M21" t="n">
-        <v>1737.537409152261</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.537409152261</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O21" t="n">
-        <v>1737.537409152261</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="P21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1062.363260807472</v>
+        <v>875.8255515988633</v>
       </c>
       <c r="C22" t="n">
-        <v>889.8015492906967</v>
+        <v>703.2638400820882</v>
       </c>
       <c r="D22" t="n">
-        <v>723.9235564922194</v>
+        <v>537.3858472836109</v>
       </c>
       <c r="E22" t="n">
-        <v>554.1655527429566</v>
+        <v>367.6278435343481</v>
       </c>
       <c r="F22" t="n">
-        <v>377.4584987047128</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="G22" t="n">
-        <v>211.8672237305405</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5935,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2623.749955382047</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2377.870508960502</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2099.437508213608</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1812.482000084038</v>
       </c>
       <c r="W22" t="n">
-        <v>1726.993304878938</v>
+        <v>1540.45559567033</v>
       </c>
       <c r="X22" t="n">
-        <v>1481.601550212351</v>
+        <v>1295.063841003742</v>
       </c>
       <c r="Y22" t="n">
-        <v>1254.181879526459</v>
+        <v>1067.64417031785</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5977,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321677</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532228</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968675</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6172,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M27" t="n">
-        <v>1300.985674363279</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6418,16 +6420,16 @@
         <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6451,37 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3135.398407382222</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4115.578073952528</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
         <v>4943.887948785924</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812566</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812566</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812566</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1945.413737851061</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1673.387333437352</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1427.995578770765</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.575908084873</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6701,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>936.6111322289576</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>2011.671098481817</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>2837.977298779171</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>3963.708282215618</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2657.217000252137</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2411.337553830592</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2132.904553083697</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1845.949044954127</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.20561557716</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,40 +6946,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2460.632577573633</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
-        <v>3586.36356101008</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4566.543227580387</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
         <v>2955.199618136697</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1004.611946844417</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>832.0502353276421</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
         <v>496.4142387799021</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173566</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1669.241990915884</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1423.850236249296</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y37" t="n">
-        <v>1196.430565563404</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7154,19 +7156,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771596</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7175,16 +7177,16 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="M38" t="n">
-        <v>2588.899621423627</v>
+        <v>1694.563362934248</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2820.294346370695</v>
       </c>
       <c r="O38" t="n">
         <v>3569.079287993933</v>
@@ -7199,25 +7201,25 @@
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>945.7774352703902</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="O39" t="n">
-        <v>945.7774352703902</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q39" t="n">
         <v>1765.500601749588</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7348,34 +7350,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724676</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595106</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1722.264168181398</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2101.378989215894</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C41" t="n">
-        <v>1663.236516399317</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D41" t="n">
-        <v>1227.326731573762</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E41" t="n">
-        <v>793.5519867320568</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F41" t="n">
-        <v>365.6845571412646</v>
+        <v>793.2056155771583</v>
       </c>
       <c r="G41" t="n">
-        <v>365.6845571412646</v>
+        <v>391.8077842004221</v>
       </c>
       <c r="H41" t="n">
-        <v>76.55440258448087</v>
+        <v>102.6776296436383</v>
       </c>
       <c r="I41" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1345.742592622717</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M41" t="n">
-        <v>1345.742592622717</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N41" t="n">
-        <v>1489.869036295245</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>2432.071999789053</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>3260.381874622449</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3806.880660581044</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3806.880660581044</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3759.962601410804</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V41" t="n">
-        <v>3759.962601410804</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W41" t="n">
-        <v>3355.107146821837</v>
+        <v>3782.628205257731</v>
       </c>
       <c r="X41" t="n">
-        <v>2935.964683401148</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y41" t="n">
-        <v>2527.678559700802</v>
+        <v>2955.199618136695</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>982.6340623067273</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C43" t="n">
-        <v>982.6340623067273</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D43" t="n">
-        <v>816.75606950825</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E43" t="n">
-        <v>646.9980657589872</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F43" t="n">
-        <v>470.2910117207434</v>
+        <v>332.8517649768962</v>
       </c>
       <c r="G43" t="n">
-        <v>304.699736746571</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H43" t="n">
-        <v>164.7975624369456</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2533.555854412417</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2287.676407990873</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2009.243407243978</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.287899114408</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1450.2614947007</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1204.869740034112</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.6340623067273</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1725.533031930705</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1287.390559114128</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.390559114128</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4028741791492</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>477.535444588357</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>76.13761321162087</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>76.13761321162087</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>511.3923006645387</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>511.3923006645387</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>511.3923006645387</v>
+        <v>1431.851786213076</v>
       </c>
       <c r="M44" t="n">
-        <v>511.3923006645387</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>1320.714971542187</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>2262.917935035995</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>3091.227809869392</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3637.726595827987</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3806.880660581044</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3806.880660581044</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3586.813433454082</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3327.591130771099</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2964.974180704926</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2560.118726115959</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2560.118726115959</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2151.832602415613</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>582.3093582029137</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>475.852897039556</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>380.7626081861092</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>286.6421935130629</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>203.2583551292245</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>117.8732653954084</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>102.2012863720785</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>426.7596113382908</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>1081.465657964015</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1081.465657964015</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1622.20459659609</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1739.37737469043</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1675.921937138813</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1545.743293469415</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1369.406746469383</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1170.289228531382</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>984.9664742645762</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>830.0990385034561</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>703.6132592826768</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1155.195773823502</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C46" t="n">
-        <v>982.6340623067273</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D46" t="n">
-        <v>816.75606950825</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E46" t="n">
-        <v>646.9980657589872</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F46" t="n">
-        <v>470.2910117207434</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="G46" t="n">
-        <v>304.699736746571</v>
+        <v>264.6734629930079</v>
       </c>
       <c r="H46" t="n">
-        <v>164.7975624369456</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>76.13761321162087</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>162.7172983763107</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>437.4757529474463</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>855.6856347154073</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1315.16950189632</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1757.428305053965</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2177.097554279746</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2524.604448250088</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2692.797223114421</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2692.797223114421</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.917776692876</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U46" t="n">
-        <v>2378.807730438247</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V46" t="n">
-        <v>2091.852222308677</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1819.825817894969</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X46" t="n">
-        <v>1574.434063228381</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1347.01439254249</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7988,10 +7990,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8055,10 +8057,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8137,25 +8139,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8231,10 +8233,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>577.115354760627</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>317.1830304671613</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8452,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,19 +8528,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8617,13 +8619,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>371.7091627680287</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>817.497647351161</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8763,22 +8765,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>839.1644551322528</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5822663358877</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -8948,7 +8950,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022035</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
@@ -9170,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,16 +9415,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>964.1848977889938</v>
@@ -9495,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>28.2456490882098</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>809.1209754020524</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,7 +10132,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
         <v>170.8626916697543</v>
@@ -10185,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10349,13 +10351,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>834.6527275730846</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10422,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,22 +10594,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>13.84524407969548</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10823,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -11066,13 +11068,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5822663358867</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11081,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11297,19 +11299,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>817.4976473511603</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23264,19 +23266,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>70.95006461518511</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800139</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>59.30510368402689</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23504,16 +23506,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>13.64364722922003</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>122.4480280049992</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>120.446375214272</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>117.7661826744374</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>84.63380825304858</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24373,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>69.71657238081411</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24895,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>216.2362286424011</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>117.7661826744372</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>190.9286964644655</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>144.1344859240869</v>
       </c>
     </row>
     <row r="38">
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25612,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>122.4480280050024</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25640,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25676,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>210.1812010776164</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>161.9268490649758</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.132153028921664</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25868,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>51.26918930765845</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26035,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>65.48800580459465</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>448453.6855049382</v>
+        <v>450567.4059088174</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448453.6855049382</v>
+        <v>450947.9859164716</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>362303.8714726936</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>362303.8714726936</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448096.3800930257</v>
+        <v>448096.3800930256</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>448096.3800930258</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448096.3800930257</v>
+        <v>448096.3800930256</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>362303.8714726936</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>362303.8714726937</v>
+        <v>448096.3800930256</v>
       </c>
     </row>
   </sheetData>
@@ -26314,19 +26316,19 @@
         <v>495936.2708986278</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986276</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270509</v>
       </c>
       <c r="F2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270509</v>
       </c>
       <c r="H2" t="n">
         <v>487343.2653270507</v>
@@ -26338,22 +26340,22 @@
         <v>487343.2653270507</v>
       </c>
       <c r="K2" t="n">
-        <v>487343.2653270506</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="L2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="M2" t="n">
+        <v>487343.2653270507</v>
+      </c>
+      <c r="N2" t="n">
         <v>487343.2653270506</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>487343.2653270508</v>
       </c>
-      <c r="O2" t="n">
-        <v>394036.550189223</v>
-      </c>
       <c r="P2" t="n">
-        <v>394036.550189223</v>
+        <v>487343.2653270508</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501609</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998284</v>
       </c>
       <c r="E3" t="n">
-        <v>157477.294922104</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>89499.80860636903</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877241</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622371</v>
       </c>
       <c r="M3" t="n">
-        <v>131436.2471574196</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>175300.239865111</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>130243.4307963243</v>
       </c>
       <c r="D4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>11517.81928486547</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="F4" t="n">
-        <v>11517.81928486544</v>
+        <v>14245.2055704926</v>
       </c>
       <c r="G4" t="n">
+        <v>14245.20557049264</v>
+      </c>
+      <c r="H4" t="n">
         <v>14245.20557049259</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14245.20557049261</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26448,16 +26450,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
+        <v>14245.2055704926</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14245.20557049255</v>
+      </c>
+      <c r="O4" t="n">
+        <v>14245.20557049255</v>
+      </c>
+      <c r="P4" t="n">
         <v>14245.20557049264</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14245.20557049264</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11517.81928486549</v>
-      </c>
-      <c r="P4" t="n">
-        <v>11517.81928486549</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>57864.58604083187</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>57864.58604083188</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>57864.58604083186</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>57864.58604083186</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,19 +26524,19 @@
         <v>119019.9422365846</v>
       </c>
       <c r="C6" t="n">
-        <v>261211.2428962943</v>
+        <v>227148.8583992847</v>
       </c>
       <c r="D6" t="n">
-        <v>261211.2428962945</v>
+        <v>288065.297561752</v>
       </c>
       <c r="E6" t="n">
-        <v>167176.8499414216</v>
+        <v>213024.7119297161</v>
       </c>
       <c r="F6" t="n">
-        <v>324654.1448635256</v>
+        <v>395379.8211507656</v>
       </c>
       <c r="G6" t="n">
-        <v>305880.0125443967</v>
+        <v>395379.8211507657</v>
       </c>
       <c r="H6" t="n">
         <v>395379.8211507656</v>
@@ -26546,22 +26548,22 @@
         <v>284365.3558057753</v>
       </c>
       <c r="K6" t="n">
+        <v>342333.9665119932</v>
+      </c>
+      <c r="L6" t="n">
+        <v>385987.5194241431</v>
+      </c>
+      <c r="M6" t="n">
+        <v>243179.6502127779</v>
+      </c>
+      <c r="N6" t="n">
         <v>395379.8211507655</v>
       </c>
-      <c r="L6" t="n">
-        <v>395379.8211507655</v>
-      </c>
-      <c r="M6" t="n">
-        <v>263943.5739933459</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
+        <v>395379.8211507658</v>
+      </c>
+      <c r="P6" t="n">
         <v>395379.8211507656</v>
-      </c>
-      <c r="O6" t="n">
-        <v>324654.1448635256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>324654.1448635256</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>951.720165145261</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>951.7201651452611</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>951.7201651452609</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>951.7201651452609</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="E4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>326.5403382394842</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.108974848359</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939362</v>
       </c>
       <c r="M4" t="n">
-        <v>527.4243076251568</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>326.5403382394842</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,7 +27390,7 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>53.58595617610928</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27430,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>230.443291597313</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,16 +27542,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>155.6575539015174</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -27594,10 +27596,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>210.4469465755355</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,19 +27618,19 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>111.2440434342801</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>174.6820951421391</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27676,7 +27678,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>400</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2288626251944947</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>140.8783988682164</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>369.8422500230728</v>
+      </c>
+      <c r="F8" t="n">
         <v>400</v>
-      </c>
-      <c r="C8" t="n">
-        <v>9.465190568306582</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.254829457195569</v>
-      </c>
-      <c r="E8" t="n">
-        <v>97.42050141645245</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27871,7 +27873,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27915,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>65.488005804594</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28073,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>61.52240998908383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28141,22 +28143,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-8.143680130197681e-15</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28512,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>-2.157684789459571e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28624,7 +28626,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-3.266697649394915e-14</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.429578708524912e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34708,10 +34710,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>236.2898988798406</v>
-      </c>
-      <c r="O2" t="n">
-        <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34775,10 +34777,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>262.4693064538401</v>
       </c>
       <c r="K3" t="n">
-        <v>358.9284720888815</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34857,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>35.25505765581499</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,16 +34935,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.80589558611064</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34951,10 +34953,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>358.9284720888815</v>
+        <v>577.115354760627</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>409.401749030468</v>
+        <v>317.1830304671613</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35172,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,19 +35248,19 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>358.9284720888815</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>466.3240083888435</v>
       </c>
       <c r="M9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35270,10 +35272,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,16 +35339,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>371.7091627680287</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>817.497647351161</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O11" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="N12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,10 +35509,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473919</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>839.1644551322528</v>
       </c>
       <c r="L14" t="n">
-        <v>145.5822663358877</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>951.720165145261</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35668,7 +35670,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35732,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>687.6461816022035</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080394</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35965,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>928.8008214318197</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081364</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>507.105909296743</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>964.1848977889938</v>
@@ -36215,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>28.2456490882098</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>922.699389992646</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>-4.768840512258373e-13</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>809.1209754020524</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,7 +36852,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
         <v>170.862691669754</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36929,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132072</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>834.6527275730846</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37090,7 +37092,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,22 +37314,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>13.84524407969548</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
         <v>661.3192390158824</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37543,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>756.3484258820586</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37716,7 +37718,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165016</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37780,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>145.5822663358867</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O41" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37801,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>817.4976473511603</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>951.720165145261</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_1_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2545758.617434183</v>
+        <v>2545233.435065149</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916864</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5186763.288913774</v>
+        <v>5186763.288913775</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>70.65789792662994</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>184.5077471891694</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>8.561658968975108</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>210.4809557126309</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -882,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>322.5170046541308</v>
+        <v>104.2799974954354</v>
       </c>
       <c r="D5" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -964,7 +964,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1065,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>34.06158462964497</v>
+        <v>34.06158462964629</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>59.59474737021493</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>86.11800819789779</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1302,13 +1302,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1341,10 +1341,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>177.9326461527353</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948845</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>30.80549757377433</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1609,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1666,16 +1666,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1773,7 +1773,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>56.63677140718728</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1864,7 +1864,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>54.49360828358933</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>225.4172151025918</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>52.51170991984772</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -2289,13 +2289,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>73.01514676193472</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2487,13 +2487,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>35.34780583513513</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
@@ -2532,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>219.2875345484105</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2952,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>8.909245336631582</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3018,7 +3018,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>8.909245336631695</v>
       </c>
     </row>
     <row r="35">
@@ -3268,25 +3268,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
         <v>217.8665548556918</v>
@@ -3325,16 +3325,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633446</v>
       </c>
     </row>
     <row r="36">
@@ -3441,10 +3441,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3489,10 +3489,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>81.01098805494593</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948839</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791314576</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,10 +3562,10 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3723,10 +3723,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>125.1716544454844</v>
       </c>
       <c r="X40" t="n">
-        <v>120.4898091149193</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3742,7 +3742,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,16 +3751,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791300866</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800142</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561547</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>2.008513159454827</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -3963,7 +3963,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494593</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>121.9901272476428</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>73.01514676193457</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>153.8932738874814</v>
+        <v>587.458323283332</v>
       </c>
       <c r="C2" t="n">
-        <v>119.7912051113087</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>87.92182432615731</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4357,25 +4357,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1613.531556264254</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>771.6250763881362</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>366.7696217991695</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>180.3981599919276</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>176.1524403319851</v>
+        <v>1013.75789376824</v>
       </c>
     </row>
     <row r="3">
@@ -4388,7 +4388,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4397,10 +4397,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4409,22 +4409,22 @@
         <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>319.8519551513677</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>739.9048540962709</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.5714734656729</v>
+        <v>206.5053801183834</v>
       </c>
       <c r="C4" t="n">
-        <v>301.0097619488978</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>292.3616215761957</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,49 +4491,49 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>33.94366860160834</v>
+        <v>308.7021231727439</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>726.9120049407049</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1109.321405990304</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1463.158582813435</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1184.72558206654</v>
       </c>
       <c r="V4" t="n">
-        <v>1410.227921950848</v>
+        <v>897.7700739369707</v>
       </c>
       <c r="W4" t="n">
-        <v>1138.201517537139</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="X4" t="n">
-        <v>892.8097628705518</v>
+        <v>625.7436695232623</v>
       </c>
       <c r="Y4" t="n">
-        <v>665.39009218466</v>
+        <v>398.3239988373705</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2075.156929400156</v>
+        <v>645.2368685701916</v>
       </c>
       <c r="C5" t="n">
-        <v>1749.382177224266</v>
+        <v>539.9035377667216</v>
       </c>
       <c r="D5" t="n">
-        <v>1313.47239239871</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>879.6976475570054</v>
+        <v>74.2594121398653</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662132</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
         <v>485.687074042395</v>
@@ -4573,46 +4573,46 @@
         <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>1733.888642131952</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="M5" t="n">
-        <v>1805.966478762202</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="N5" t="n">
-        <v>1805.966478762202</v>
+        <v>1733.888642131953</v>
       </c>
       <c r="O5" t="n">
-        <v>1805.966478762202</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762202</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720796</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="U5" t="n">
-        <v>2521.619329473853</v>
+        <v>2262.397026790872</v>
       </c>
       <c r="V5" t="n">
-        <v>2521.619329473853</v>
+        <v>1899.780076724698</v>
       </c>
       <c r="W5" t="n">
-        <v>2116.763874884887</v>
+        <v>1494.924622135731</v>
       </c>
       <c r="X5" t="n">
-        <v>2101.661815504602</v>
+        <v>1479.822562755446</v>
       </c>
       <c r="Y5" t="n">
-        <v>2097.416095844659</v>
+        <v>1071.536439055099</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326458</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993466</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>972.3985859291677</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>972.3985859291677</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>972.3985859291677</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>972.3985859291677</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.0357356940376</v>
+        <v>593.035735694039</v>
       </c>
       <c r="C7" t="n">
-        <v>420.4740241772625</v>
+        <v>420.4740241772639</v>
       </c>
       <c r="D7" t="n">
-        <v>254.5960313787852</v>
+        <v>254.5960313787866</v>
       </c>
       <c r="E7" t="n">
-        <v>84.83802762952249</v>
+        <v>84.83802762952385</v>
       </c>
       <c r="F7" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="G7" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="H7" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947706</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
         <v>411.7705263253025</v>
@@ -4734,43 +4734,43 @@
         <v>829.9804080932636</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255753</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413398</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639179</v>
+        <v>2005.919660639181</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609521</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473853</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179225</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477222</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055677</v>
+        <v>2095.080693055678</v>
       </c>
       <c r="U7" t="n">
-        <v>1816.647692308782</v>
+        <v>1816.647692308783</v>
       </c>
       <c r="V7" t="n">
-        <v>1529.692184179213</v>
+        <v>1529.692184179214</v>
       </c>
       <c r="W7" t="n">
-        <v>1257.665779765504</v>
+        <v>1257.665779765505</v>
       </c>
       <c r="X7" t="n">
-        <v>1012.274025098917</v>
+        <v>1012.274025098918</v>
       </c>
       <c r="Y7" t="n">
-        <v>784.8543544130248</v>
+        <v>784.8543544130262</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1011.477214236518</v>
+        <v>1385.055244562854</v>
       </c>
       <c r="C8" t="n">
-        <v>573.3347414199409</v>
+        <v>946.912771746277</v>
       </c>
       <c r="D8" t="n">
-        <v>137.4249565943854</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4810,22 +4810,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4840,16 +4840,16 @@
         <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2670.060826431428</v>
+        <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>2265.205371842461</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X8" t="n">
-        <v>1846.062908421772</v>
+        <v>1815.600534707704</v>
       </c>
       <c r="Y8" t="n">
-        <v>1437.776784721425</v>
+        <v>1407.314411007357</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.8681021663376</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C10" t="n">
-        <v>794.3063906495626</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D10" t="n">
-        <v>628.4283978510853</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E10" t="n">
-        <v>458.6703941018225</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4989,25 +4989,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2468.913059527977</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>2190.480058781082</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1903.524550651513</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.498146237804</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1386.106391571217</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.686720885325</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="11">
@@ -5029,13 +5029,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5050,22 +5050,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
         <v>5029.390139722817</v>
@@ -5117,31 +5117,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
         <v>1765.500601749588</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>952.7568773477108</v>
+        <v>1035.728611060351</v>
       </c>
       <c r="C13" t="n">
-        <v>780.1951658309357</v>
+        <v>863.1668995435758</v>
       </c>
       <c r="D13" t="n">
-        <v>614.3171730324584</v>
+        <v>697.2889067450985</v>
       </c>
       <c r="E13" t="n">
-        <v>444.5591692831957</v>
+        <v>527.5309029958357</v>
       </c>
       <c r="F13" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H13" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5223,28 +5223,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X13" t="n">
-        <v>1371.99516675259</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.575496066698</v>
+        <v>1227.547229779338</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
         <v>1654.847790009657</v>
@@ -5266,10 +5266,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5281,49 +5281,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>1368.288338304628</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>2443.348304557487</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>751.6989919312866</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.7568773477108</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5460,28 +5460,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2176.368833962455</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V16" t="n">
-        <v>1889.413325832886</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W16" t="n">
-        <v>1617.386921419177</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X16" t="n">
-        <v>1371.99516675259</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y16" t="n">
-        <v>1144.575496066698</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M17" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5597,22 +5597,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O18" t="n">
-        <v>1133.616358467827</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P18" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>970.9960463903949</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C19" t="n">
-        <v>798.4343348736198</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D19" t="n">
-        <v>632.5563420751425</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E19" t="n">
-        <v>462.7983383258798</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F19" t="n">
-        <v>407.7542895545774</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G19" t="n">
-        <v>242.1630145804051</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1786.254656339223</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1514.228251925515</v>
       </c>
       <c r="X19" t="n">
-        <v>1390.234335795274</v>
+        <v>1268.836497258927</v>
       </c>
       <c r="Y19" t="n">
-        <v>1162.814665109382</v>
+        <v>1041.416826573035</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1021.773653488281</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M20" t="n">
-        <v>2178.821488698832</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>3304.552472135279</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4284.732138705585</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5828,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O21" t="n">
-        <v>1056.803889081883</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>875.8255515988633</v>
+        <v>1068.769857140658</v>
       </c>
       <c r="C22" t="n">
-        <v>703.2638400820882</v>
+        <v>896.2081456238831</v>
       </c>
       <c r="D22" t="n">
-        <v>537.3858472836109</v>
+        <v>730.3301528254058</v>
       </c>
       <c r="E22" t="n">
-        <v>367.6278435343481</v>
+        <v>560.572149076143</v>
       </c>
       <c r="F22" t="n">
-        <v>190.9207894961043</v>
+        <v>383.8650950378992</v>
       </c>
       <c r="G22" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
         <v>190.9207894961043</v>
@@ -5937,25 +5937,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2623.749955382047</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2377.870508960502</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2099.437508213608</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V22" t="n">
-        <v>1812.482000084038</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W22" t="n">
-        <v>1540.45559567033</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X22" t="n">
-        <v>1295.063841003742</v>
+        <v>1488.008146545537</v>
       </c>
       <c r="Y22" t="n">
-        <v>1067.64417031785</v>
+        <v>1260.588475859645</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6071,19 +6071,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P24" t="n">
         <v>1107.588885023173</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>303.5569696238763</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6214,13 +6214,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O27" t="n">
-        <v>4455.130296812566</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6703,25 +6703,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>405.0384966383147</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6882,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1200.575908084873</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
         <v>1654.847790009657</v>
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.20561557716</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7019,19 +7019,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O36" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P36" t="n">
         <v>1107.588885023173</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7110,37 +7110,37 @@
         <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309252</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7156,19 +7156,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771596</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,34 +7177,34 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912873</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7323,7 +7323,7 @@
         <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7350,28 +7350,28 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309241</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173574</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173574</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.67908147157</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2559.67908147157</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2281.246080724676</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1994.290572595106</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1722.264168181398</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="X40" t="n">
         <v>1600.55729028754</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835211</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009655</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771583</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004221</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436383</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7417,46 +7417,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2528.913654892426</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257731</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136695</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7493,19 +7493,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
         <v>1107.588885023173</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1017.756527079655</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>845.1948155628801</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>679.3168227644028</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>509.55881901514</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>332.8517649768962</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
@@ -7611,10 +7611,10 @@
         <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y43" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7636,10 +7636,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
         <v>102.6776296436396</v>
@@ -7654,31 +7654,31 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1431.851786213076</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
         <v>4550.100609912873</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>949.5782250957668</v>
+        <v>1039.174348374287</v>
       </c>
       <c r="C46" t="n">
-        <v>777.0165135789917</v>
+        <v>866.6126368575123</v>
       </c>
       <c r="D46" t="n">
-        <v>611.1385207805145</v>
+        <v>700.734644059035</v>
       </c>
       <c r="E46" t="n">
-        <v>441.3805170312517</v>
+        <v>530.9766403097722</v>
       </c>
       <c r="F46" t="n">
-        <v>264.6734629930079</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>264.6734629930079</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7818,40 +7818,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113127</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338909</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="S46" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T46" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U46" t="n">
-        <v>2173.190181710511</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V46" t="n">
-        <v>1886.234673580942</v>
+        <v>1748.41112617357</v>
       </c>
       <c r="W46" t="n">
-        <v>1614.208269167233</v>
+        <v>1476.384721759862</v>
       </c>
       <c r="X46" t="n">
-        <v>1368.816514500646</v>
+        <v>1230.992967093275</v>
       </c>
       <c r="Y46" t="n">
-        <v>1141.396843814754</v>
+        <v>1230.992967093275</v>
       </c>
     </row>
   </sheetData>
@@ -7978,11 +7978,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8057,13 +8057,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8139,16 +8139,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>386.2721222723219</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
@@ -8157,7 +8157,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611064</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.115354760627</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684633</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8382,7 +8382,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671613</v>
+        <v>317.1830304671627</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -8458,7 +8458,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8467,16 +8467,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,16 +8528,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8698,19 +8698,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>363.3683445154879</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8765,34 +8765,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>839.1644551322528</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9163,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9260,10 +9260,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,16 +9400,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>928.8008214318197</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -9421,10 +9421,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9719,22 +9719,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9956,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -10366,13 +10366,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,13 +10424,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,22 +10667,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -10825,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>446.2295987639959</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,13 +11065,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11141,22 +11141,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11302,10 +11302,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23427,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>58.66873794568204</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>111.4236523045829</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>84.63380825304858</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>56.36113619101519</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>69.71657238081424</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>216.2362286424011</v>
       </c>
     </row>
     <row r="35">
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>144.1344859240869</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>144.134485924087</v>
       </c>
       <c r="X40" t="n">
-        <v>122.4480280050024</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>52.94985625021856</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>65.48800580459465</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>448096.3800930257</v>
+        <v>448096.3800930258</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>448096.3800930256</v>
+        <v>448096.3800930258</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>448096.3800930257</v>
+        <v>448096.3800930258</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>448096.3800930257</v>
+        <v>448096.3800930259</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>448096.3800930256</v>
+        <v>448096.3800930257</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>448096.3800930256</v>
+        <v>448096.3800930258</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986275</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986277</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
         <v>495936.2708986277</v>
       </c>
       <c r="E2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270508</v>
       </c>
       <c r="F2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="G2" t="n">
-        <v>487343.2653270509</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="H2" t="n">
-        <v>487343.2653270507</v>
+        <v>487343.2653270506</v>
       </c>
       <c r="I2" t="n">
         <v>487343.2653270507</v>
       </c>
       <c r="J2" t="n">
+        <v>487343.2653270508</v>
+      </c>
+      <c r="K2" t="n">
         <v>487343.2653270507</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>487343.2653270506</v>
+      </c>
+      <c r="M2" t="n">
         <v>487343.2653270508</v>
-      </c>
-      <c r="L2" t="n">
-        <v>487343.2653270507</v>
-      </c>
-      <c r="M2" t="n">
-        <v>487343.2653270507</v>
       </c>
       <c r="N2" t="n">
         <v>487343.2653270506</v>
       </c>
       <c r="O2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270507</v>
       </c>
       <c r="P2" t="n">
-        <v>487343.2653270508</v>
+        <v>487343.2653270509</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501609</v>
+        <v>66587.76789501621</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998284</v>
+        <v>11527.59554998273</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877241</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622371</v>
+        <v>9392.301726622285</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,10 +26426,10 @@
         <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>14245.2055704926</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="F4" t="n">
-        <v>14245.2055704926</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="G4" t="n">
         <v>14245.20557049264</v>
@@ -26450,13 +26450,13 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
-        <v>14245.2055704926</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>14245.20557049255</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>14245.20557049255</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
         <v>14245.20557049264</v>
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800256</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26505,13 +26505,13 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119019.9422365846</v>
+        <v>119019.9422365843</v>
       </c>
       <c r="C6" t="n">
-        <v>227148.8583992847</v>
+        <v>227148.8583992845</v>
       </c>
       <c r="D6" t="n">
         <v>288065.297561752</v>
       </c>
       <c r="E6" t="n">
-        <v>213024.7119297161</v>
+        <v>213001.4875903332</v>
       </c>
       <c r="F6" t="n">
-        <v>395379.8211507656</v>
+        <v>395356.5968113828</v>
       </c>
       <c r="G6" t="n">
-        <v>395379.8211507657</v>
+        <v>395356.5968113828</v>
       </c>
       <c r="H6" t="n">
-        <v>395379.8211507656</v>
+        <v>395356.5968113829</v>
       </c>
       <c r="I6" t="n">
-        <v>395379.8211507655</v>
+        <v>395356.5968113829</v>
       </c>
       <c r="J6" t="n">
-        <v>284365.3558057753</v>
+        <v>284342.1314663927</v>
       </c>
       <c r="K6" t="n">
-        <v>342333.9665119932</v>
+        <v>342310.7421726103</v>
       </c>
       <c r="L6" t="n">
-        <v>385987.5194241431</v>
+        <v>385964.2950847605</v>
       </c>
       <c r="M6" t="n">
-        <v>243179.6502127779</v>
+        <v>243156.4258733954</v>
       </c>
       <c r="N6" t="n">
-        <v>395379.8211507655</v>
+        <v>395356.5968113828</v>
       </c>
       <c r="O6" t="n">
-        <v>395379.8211507658</v>
+        <v>395356.5968113829</v>
       </c>
       <c r="P6" t="n">
-        <v>395379.8211507656</v>
+        <v>395356.596811383</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939362</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939362</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.108974848359</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939362</v>
+        <v>37.11037423939328</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>363.1031501617809</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>230.443291597313</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>155.6575539015174</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -27557,7 +27557,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>32.93969624469838</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>329.4810505929756</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>111.2440434342801</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27672,10 +27672,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>140.8783988682164</v>
+        <v>140.878398868215</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>369.8422500230728</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27912,13 +27912,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>328.8330305885846</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28022,13 +28022,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,10 +28061,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>65.488005804594</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30753,7 +30753,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-4.484950034982556e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30890,7 +30890,7 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -34698,11 +34698,11 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="K2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34777,13 +34777,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>262.4693064538401</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,7 +34795,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34859,16 +34859,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>386.2721222723219</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
@@ -34877,7 +34877,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684633</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="M5" t="n">
-        <v>72.80589558611064</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>577.115354760627</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="O6" t="n">
-        <v>630.4048323684633</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35102,7 +35102,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>317.1830304671613</v>
+        <v>317.1830304671627</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35178,7 +35178,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35187,16 +35187,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35248,16 +35248,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35275,7 +35275,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35418,19 +35418,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
-        <v>363.3683445154879</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
         <v>170.862691669754</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35649,7 +35649,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>839.1644551322528</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35658,10 +35658,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458546</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,22 +35734,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J18" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q18" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
-        <v>928.8008214318197</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N20" t="n">
         <v>1137.102003471159</v>
@@ -36141,10 +36141,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -36217,13 +36217,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>715.8552653209142</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1168.735187081365</v>
@@ -37086,13 +37086,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37165,13 +37165,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>828.0031984638366</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
@@ -37478,7 +37478,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512993</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37545,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37639,13 +37639,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>446.2295987639959</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37718,7 +37718,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165016</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821539</v>
@@ -37785,13 +37785,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
-        <v>60.59188538505123</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37855,28 +37855,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38022,10 +38022,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38186,10 +38186,10 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>446.7260637956044</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
